--- a/xlsx/委內瑞拉_intext.xlsx
+++ b/xlsx/委內瑞拉_intext.xlsx
@@ -29,7 +29,7 @@
     <t>委内瑞拉 (古巴)</t>
   </si>
   <si>
-    <t>政策_政策_美國_委內瑞拉</t>
+    <t>体育运动_体育运动_伊朗_委內瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89%E5%9C%8B%E6%97%97</t>
